--- a/classification/droptc/modern-bert/unfreeze/37622020/prediction.xlsx
+++ b/classification/droptc/modern-bert/unfreeze/37622020/prediction.xlsx
@@ -478,19 +478,19 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E2" t="b">
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9975616931915283</v>
+        <v>0.9984654188156128</v>
       </c>
     </row>
     <row r="3">
@@ -518,7 +518,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9951169490814209</v>
+        <v>0.9992075562477112</v>
       </c>
     </row>
     <row r="4">
@@ -534,19 +534,19 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E4" t="b">
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.999369204044342</v>
+        <v>0.9426605701446533</v>
       </c>
     </row>
     <row r="5">
@@ -562,7 +562,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -571,10 +571,10 @@
         </is>
       </c>
       <c r="E5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9964867830276489</v>
+        <v>0.9996044039726257</v>
       </c>
     </row>
     <row r="6">
@@ -590,19 +590,19 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E6" t="b">
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9956232905387878</v>
+        <v>0.9981572031974792</v>
       </c>
     </row>
     <row r="7">
@@ -630,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9994801878929138</v>
+        <v>0.9993101358413696</v>
       </c>
     </row>
     <row r="8">
@@ -646,19 +646,19 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9982091188430786</v>
+        <v>0.9904588460922241</v>
       </c>
     </row>
     <row r="9">
@@ -686,7 +686,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9990357160568237</v>
+        <v>0.9989598989486694</v>
       </c>
     </row>
     <row r="10">
@@ -714,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9997771382331848</v>
+        <v>0.9992402791976929</v>
       </c>
     </row>
     <row r="11">
@@ -742,7 +742,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9992570281028748</v>
+        <v>0.9983823299407959</v>
       </c>
     </row>
     <row r="12">
@@ -758,19 +758,19 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E12" t="b">
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9951516389846802</v>
+        <v>0.9987990856170654</v>
       </c>
     </row>
     <row r="13">
@@ -798,7 +798,7 @@
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9997488856315613</v>
+        <v>0.9989952445030212</v>
       </c>
     </row>
     <row r="14">
@@ -819,14 +819,14 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9997614026069641</v>
+        <v>0.8136402368545532</v>
       </c>
     </row>
     <row r="15">
@@ -842,19 +842,19 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E15" t="b">
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9943384528160095</v>
+        <v>0.7236912250518799</v>
       </c>
     </row>
     <row r="16">
@@ -870,19 +870,19 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E16" t="b">
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9923227429389954</v>
+        <v>0.5477186441421509</v>
       </c>
     </row>
     <row r="17">
@@ -898,19 +898,19 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E17" t="b">
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9990357160568237</v>
+        <v>0.9927318692207336</v>
       </c>
     </row>
     <row r="18">
@@ -938,7 +938,7 @@
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0.996941864490509</v>
+        <v>0.994486391544342</v>
       </c>
     </row>
     <row r="19">
@@ -966,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9996820688247681</v>
+        <v>0.9989952445030212</v>
       </c>
     </row>
     <row r="20">
@@ -982,19 +982,19 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E20" t="b">
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9994801878929138</v>
+        <v>0.9874568581581116</v>
       </c>
     </row>
     <row r="21">
@@ -1010,19 +1010,19 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E21" t="b">
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9997318387031555</v>
+        <v>0.994670569896698</v>
       </c>
     </row>
     <row r="22">
@@ -1050,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9959690570831299</v>
+        <v>0.9927096366882324</v>
       </c>
     </row>
     <row r="23">
@@ -1078,7 +1078,7 @@
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9978718757629395</v>
+        <v>0.9927096366882324</v>
       </c>
     </row>
     <row r="24">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9992607235908508</v>
+        <v>0.9990413784980774</v>
       </c>
     </row>
     <row r="25">
@@ -1134,7 +1134,7 @@
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9957466721534729</v>
+        <v>0.9830949902534485</v>
       </c>
     </row>
     <row r="26">
@@ -1150,19 +1150,19 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E26" t="b">
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9943384528160095</v>
+        <v>0.7535890936851501</v>
       </c>
     </row>
     <row r="27">
@@ -1178,19 +1178,19 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E27" t="b">
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.999657154083252</v>
+        <v>0.9920172691345215</v>
       </c>
     </row>
     <row r="28">
@@ -1218,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9997608065605164</v>
+        <v>0.9995211362838745</v>
       </c>
     </row>
     <row r="29">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9997125267982483</v>
+        <v>0.9980012774467468</v>
       </c>
     </row>
     <row r="30">
@@ -1262,19 +1262,19 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E30" t="b">
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9319295287132263</v>
+        <v>0.9976678490638733</v>
       </c>
     </row>
     <row r="31">
@@ -1302,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9996021389961243</v>
+        <v>0.9981709718704224</v>
       </c>
     </row>
     <row r="32">
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9997953772544861</v>
+        <v>0.9991616010665894</v>
       </c>
     </row>
     <row r="33">
@@ -1358,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9997827410697937</v>
+        <v>0.9993873834609985</v>
       </c>
     </row>
     <row r="34">
@@ -1386,7 +1386,7 @@
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9994801878929138</v>
+        <v>0.9993096590042114</v>
       </c>
     </row>
     <row r="35">
@@ -1414,7 +1414,7 @@
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9994801878929138</v>
+        <v>0.9992781281471252</v>
       </c>
     </row>
     <row r="36">
@@ -1430,19 +1430,19 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9994939565658569</v>
+        <v>0.5472890138626099</v>
       </c>
     </row>
     <row r="37">
@@ -1458,19 +1458,19 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E37" t="b">
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9844126105308533</v>
+        <v>0.9996629953384399</v>
       </c>
     </row>
     <row r="38">
@@ -1486,7 +1486,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1495,10 +1495,10 @@
         </is>
       </c>
       <c r="E38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9991599321365356</v>
+        <v>0.9976632595062256</v>
       </c>
     </row>
     <row r="39">
@@ -1526,7 +1526,7 @@
         <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9996408224105835</v>
+        <v>0.999414324760437</v>
       </c>
     </row>
     <row r="40">
@@ -1542,19 +1542,19 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E40" t="b">
         <v>1</v>
       </c>
       <c r="F40" t="n">
-        <v>0.999536395072937</v>
+        <v>0.9766536355018616</v>
       </c>
     </row>
     <row r="41">
@@ -1570,19 +1570,19 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E41" t="b">
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9959045052528381</v>
+        <v>0.98703533411026</v>
       </c>
     </row>
     <row r="42">
@@ -1598,19 +1598,19 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E42" t="b">
         <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9893471002578735</v>
+        <v>0.9620554447174072</v>
       </c>
     </row>
     <row r="43">
@@ -1626,19 +1626,19 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E43" t="b">
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9997126460075378</v>
+        <v>0.9918067455291748</v>
       </c>
     </row>
     <row r="44">
@@ -1659,14 +1659,14 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9903096556663513</v>
+        <v>0.9991328120231628</v>
       </c>
     </row>
     <row r="45">
@@ -1694,7 +1694,7 @@
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.999148964881897</v>
+        <v>0.999484658241272</v>
       </c>
     </row>
     <row r="46">
@@ -1710,19 +1710,19 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9997997879981995</v>
+        <v>0.9124026298522949</v>
       </c>
     </row>
     <row r="47">
@@ -1738,7 +1738,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="E47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.9994606375694275</v>
+        <v>0.7682520747184753</v>
       </c>
     </row>
     <row r="48">
@@ -1766,19 +1766,19 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E48" t="b">
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9998078942298889</v>
+        <v>0.9848920106887817</v>
       </c>
     </row>
     <row r="49">
@@ -1794,19 +1794,19 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E49" t="b">
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9953848719596863</v>
+        <v>0.9994053840637207</v>
       </c>
     </row>
     <row r="50">
@@ -1822,19 +1822,19 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E50" t="b">
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.9995853304862976</v>
+        <v>0.6621842980384827</v>
       </c>
     </row>
     <row r="51">
@@ -1850,19 +1850,19 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E51" t="b">
         <v>1</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9905691146850586</v>
+        <v>0.9913459420204163</v>
       </c>
     </row>
     <row r="52">
@@ -1890,7 +1890,7 @@
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9997430443763733</v>
+        <v>0.9991292357444763</v>
       </c>
     </row>
     <row r="53">
@@ -1906,19 +1906,19 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E53" t="b">
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.7236530184745789</v>
+        <v>0.9994787573814392</v>
       </c>
     </row>
     <row r="54">
@@ -1946,7 +1946,7 @@
         <v>1</v>
       </c>
       <c r="F54" t="n">
-        <v>0.9996263980865479</v>
+        <v>0.9996088147163391</v>
       </c>
     </row>
     <row r="55">
@@ -1962,19 +1962,19 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9867408871650696</v>
+        <v>0.9797859787940979</v>
       </c>
     </row>
     <row r="56">
@@ -2002,7 +2002,7 @@
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.9986257553100586</v>
+        <v>0.9993005990982056</v>
       </c>
     </row>
     <row r="57">
@@ -2023,14 +2023,14 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9996609687805176</v>
+        <v>0.9076186418533325</v>
       </c>
     </row>
     <row r="58">
@@ -2046,19 +2046,19 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.9890871047973633</v>
+        <v>0.8935547471046448</v>
       </c>
     </row>
     <row r="59">
@@ -2074,19 +2074,19 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E59" t="b">
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9997592568397522</v>
+        <v>0.8958522081375122</v>
       </c>
     </row>
     <row r="60">
@@ -2102,19 +2102,19 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E60" t="b">
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9943384528160095</v>
+        <v>0.9989952445030212</v>
       </c>
     </row>
     <row r="61">
@@ -2130,7 +2130,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2139,10 +2139,10 @@
         </is>
       </c>
       <c r="E61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.9933047890663147</v>
+        <v>0.9973304271697998</v>
       </c>
     </row>
     <row r="62">
@@ -2170,7 +2170,7 @@
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.9985557198524475</v>
+        <v>0.9984757304191589</v>
       </c>
     </row>
     <row r="63">
@@ -2198,7 +2198,7 @@
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9997057318687439</v>
+        <v>0.9985589385032654</v>
       </c>
     </row>
     <row r="64">
@@ -2226,7 +2226,7 @@
         <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>0.9997125267982483</v>
+        <v>0.9987989664077759</v>
       </c>
     </row>
     <row r="65">
@@ -2242,19 +2242,19 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E65" t="b">
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.9978156089782715</v>
+        <v>0.9989666938781738</v>
       </c>
     </row>
     <row r="66">
@@ -2282,7 +2282,7 @@
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9994801878929138</v>
+        <v>0.9905791878700256</v>
       </c>
     </row>
     <row r="67">
@@ -2298,19 +2298,19 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E67" t="b">
         <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9994801878929138</v>
+        <v>0.992519736289978</v>
       </c>
     </row>
     <row r="68">
@@ -2326,19 +2326,19 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E68" t="b">
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.5428148508071899</v>
+        <v>0.9214339256286621</v>
       </c>
     </row>
     <row r="69">
@@ -2354,19 +2354,19 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E69" t="b">
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.9997060894966125</v>
+        <v>0.984264075756073</v>
       </c>
     </row>
     <row r="70">
@@ -2394,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9998598098754883</v>
+        <v>0.9989994168281555</v>
       </c>
     </row>
     <row r="71">
@@ -2422,7 +2422,7 @@
         <v>1</v>
       </c>
       <c r="F71" t="n">
-        <v>0.9996321201324463</v>
+        <v>0.9993792772293091</v>
       </c>
     </row>
     <row r="72">
@@ -2438,19 +2438,19 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E72" t="b">
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.4872173368930817</v>
+        <v>0.9874568581581116</v>
       </c>
     </row>
     <row r="73">
@@ -2478,7 +2478,7 @@
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.9997232556343079</v>
+        <v>0.9989952445030212</v>
       </c>
     </row>
     <row r="74">
@@ -2494,19 +2494,19 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E74" t="b">
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.9756027460098267</v>
+        <v>0.9927096366882324</v>
       </c>
     </row>
     <row r="75">
@@ -2534,7 +2534,7 @@
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9998347759246826</v>
+        <v>0.9988077878952026</v>
       </c>
     </row>
     <row r="76">
@@ -2562,7 +2562,7 @@
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9997971653938293</v>
+        <v>0.9991911053657532</v>
       </c>
     </row>
     <row r="77">
@@ -2590,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.9997894167900085</v>
+        <v>0.9995909333229065</v>
       </c>
     </row>
     <row r="78">
@@ -2606,19 +2606,19 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E78" t="b">
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.9997605681419373</v>
+        <v>0.9821709394454956</v>
       </c>
     </row>
     <row r="79">
@@ -2646,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.999784529209137</v>
+        <v>0.9985976815223694</v>
       </c>
     </row>
     <row r="80">
@@ -2674,7 +2674,7 @@
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.9997052550315857</v>
+        <v>0.999187171459198</v>
       </c>
     </row>
     <row r="81">
@@ -2702,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.9998031258583069</v>
+        <v>0.9991012811660767</v>
       </c>
     </row>
     <row r="82">
@@ -2730,7 +2730,7 @@
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.9997318387031555</v>
+        <v>0.9985345602035522</v>
       </c>
     </row>
     <row r="83">
@@ -2746,19 +2746,19 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E83" t="b">
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.996722400188446</v>
+        <v>0.9989952445030212</v>
       </c>
     </row>
     <row r="84">
@@ -2774,19 +2774,19 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E84" t="b">
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.9963741898536682</v>
+        <v>0.994486391544342</v>
       </c>
     </row>
     <row r="85">
@@ -2802,19 +2802,19 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E85" t="b">
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.9972236156463623</v>
+        <v>0.9934585690498352</v>
       </c>
     </row>
     <row r="86">
@@ -2842,7 +2842,7 @@
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.9995695948600769</v>
+        <v>0.999600350856781</v>
       </c>
     </row>
     <row r="87">
@@ -2858,19 +2858,19 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E87" t="b">
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.988620936870575</v>
+        <v>0.9984845519065857</v>
       </c>
     </row>
     <row r="88">
@@ -2898,7 +2898,7 @@
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.9992633461952209</v>
+        <v>0.9992282390594482</v>
       </c>
     </row>
     <row r="89">
@@ -2914,19 +2914,19 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E89" t="b">
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.9982044696807861</v>
+        <v>0.9994737505912781</v>
       </c>
     </row>
     <row r="90">
@@ -2942,19 +2942,19 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E90" t="b">
         <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9994801878929138</v>
+        <v>0.3970586955547333</v>
       </c>
     </row>
     <row r="91">
@@ -2982,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9998660087585449</v>
+        <v>0.9995353221893311</v>
       </c>
     </row>
     <row r="92">
@@ -2998,19 +2998,19 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.5982688665390015</v>
+        <v>0.9989952445030212</v>
       </c>
     </row>
     <row r="93">
@@ -3038,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.9995217323303223</v>
+        <v>0.9953635931015015</v>
       </c>
     </row>
     <row r="94">
@@ -3054,19 +3054,19 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E94" t="b">
         <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.9998043179512024</v>
+        <v>0.9874568581581116</v>
       </c>
     </row>
     <row r="95">
@@ -3094,7 +3094,7 @@
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.9992550015449524</v>
+        <v>0.9988428354263306</v>
       </c>
     </row>
     <row r="96">
@@ -3110,19 +3110,19 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E96" t="b">
         <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.9981417655944824</v>
+        <v>0.9990713596343994</v>
       </c>
     </row>
     <row r="97">
@@ -3150,7 +3150,7 @@
         <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>0.9990912675857544</v>
+        <v>0.9994352459907532</v>
       </c>
     </row>
     <row r="98">
@@ -3166,7 +3166,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3175,10 +3175,10 @@
         </is>
       </c>
       <c r="E98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F98" t="n">
-        <v>0.9996021389961243</v>
+        <v>0.9937995076179504</v>
       </c>
     </row>
     <row r="99">
@@ -3194,19 +3194,19 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E99" t="b">
         <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>0.9994514584541321</v>
+        <v>0.967205286026001</v>
       </c>
     </row>
     <row r="100">
@@ -3234,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.9997698664665222</v>
+        <v>0.9830830097198486</v>
       </c>
     </row>
     <row r="101">
@@ -3250,19 +3250,19 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E101" t="b">
         <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.9915207028388977</v>
+        <v>0.8558910489082336</v>
       </c>
     </row>
     <row r="102">
@@ -3290,7 +3290,7 @@
         <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0.9993618130683899</v>
+        <v>0.9983083009719849</v>
       </c>
     </row>
     <row r="103">
@@ -3311,14 +3311,14 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F103" t="n">
-        <v>0.5308461785316467</v>
+        <v>0.9991511106491089</v>
       </c>
     </row>
     <row r="104">
@@ -3346,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.9994995594024658</v>
+        <v>0.9986304044723511</v>
       </c>
     </row>
     <row r="105">
@@ -3374,7 +3374,7 @@
         <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>0.9995098114013672</v>
+        <v>0.9989952445030212</v>
       </c>
     </row>
     <row r="106">
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.9995332956314087</v>
+        <v>0.9994878768920898</v>
       </c>
     </row>
     <row r="107">
@@ -3418,19 +3418,19 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E107" t="b">
         <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>0.99962317943573</v>
+        <v>0.967205286026001</v>
       </c>
     </row>
     <row r="108">
@@ -3446,19 +3446,19 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E108" t="b">
         <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.9963323473930359</v>
+        <v>0.9988402724266052</v>
       </c>
     </row>
     <row r="109">
@@ -3474,19 +3474,19 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E109" t="b">
         <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0.9953848719596863</v>
+        <v>0.9993312358856201</v>
       </c>
     </row>
     <row r="110">
@@ -3502,19 +3502,19 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.5129225254058838</v>
+        <v>0.3177634179592133</v>
       </c>
     </row>
     <row r="111">
@@ -3542,7 +3542,7 @@
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>0.999656081199646</v>
+        <v>0.9982419013977051</v>
       </c>
     </row>
     <row r="112">
@@ -3558,19 +3558,19 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E112" t="b">
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.9979522228240967</v>
+        <v>0.9981794357299805</v>
       </c>
     </row>
     <row r="113">
@@ -3586,19 +3586,19 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E113" t="b">
         <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.5159045457839966</v>
+        <v>0.9119264483451843</v>
       </c>
     </row>
     <row r="114">
@@ -3614,19 +3614,19 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E114" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F114" t="n">
-        <v>0.989924430847168</v>
+        <v>0.466626763343811</v>
       </c>
     </row>
     <row r="115">
@@ -3654,7 +3654,7 @@
         <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.9994801878929138</v>
+        <v>0.9509648084640503</v>
       </c>
     </row>
     <row r="116">
@@ -3670,19 +3670,19 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E116" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F116" t="n">
-        <v>0.9997513890266418</v>
+        <v>0.8612950444221497</v>
       </c>
     </row>
     <row r="117">
@@ -3698,7 +3698,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3707,10 +3707,10 @@
         </is>
       </c>
       <c r="E117" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F117" t="n">
-        <v>0.999728262424469</v>
+        <v>0.9947423934936523</v>
       </c>
     </row>
     <row r="118">
@@ -3726,19 +3726,19 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>0.9927499294281006</v>
+        <v>0.7421587705612183</v>
       </c>
     </row>
     <row r="119">
@@ -3754,19 +3754,19 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>0.9953560829162598</v>
+        <v>0.8356360793113708</v>
       </c>
     </row>
     <row r="120">
@@ -3794,7 +3794,7 @@
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.9997225403785706</v>
+        <v>0.9993680119514465</v>
       </c>
     </row>
     <row r="121">
@@ -3810,19 +3810,19 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E121" t="b">
         <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>0.9998372793197632</v>
+        <v>0.9908580183982849</v>
       </c>
     </row>
     <row r="122">
@@ -3838,19 +3838,19 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E122" t="b">
         <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0.9950270056724548</v>
+        <v>0.999292254447937</v>
       </c>
     </row>
     <row r="123">
@@ -3878,7 +3878,7 @@
         <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.9994975328445435</v>
+        <v>0.9994595646858215</v>
       </c>
     </row>
     <row r="124">
@@ -3906,7 +3906,7 @@
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.9995906949043274</v>
+        <v>0.9993805885314941</v>
       </c>
     </row>
     <row r="125">
@@ -3922,19 +3922,19 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E125" t="b">
         <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.9970500469207764</v>
+        <v>0.9795553088188171</v>
       </c>
     </row>
     <row r="126">
@@ -3950,19 +3950,19 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E126" t="b">
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.5282965898513794</v>
+        <v>0.9938272833824158</v>
       </c>
     </row>
     <row r="127">
@@ -3978,19 +3978,19 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E127" t="b">
         <v>1</v>
       </c>
       <c r="F127" t="n">
-        <v>0.9982044696807861</v>
+        <v>0.9979828596115112</v>
       </c>
     </row>
     <row r="128">
@@ -4018,7 +4018,7 @@
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.9997301697731018</v>
+        <v>0.9989952445030212</v>
       </c>
     </row>
     <row r="129">
@@ -4034,19 +4034,19 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E129" t="b">
         <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>0.9943568110466003</v>
+        <v>0.9915515184402466</v>
       </c>
     </row>
     <row r="130">
@@ -4062,19 +4062,19 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F130" t="n">
-        <v>0.9992850422859192</v>
+        <v>0.9884164333343506</v>
       </c>
     </row>
     <row r="131">
@@ -4090,19 +4090,19 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E131" t="b">
         <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.9954054355621338</v>
+        <v>0.975225031375885</v>
       </c>
     </row>
     <row r="132">
@@ -4130,7 +4130,7 @@
         <v>1</v>
       </c>
       <c r="F132" t="n">
-        <v>0.9996505975723267</v>
+        <v>0.998643696308136</v>
       </c>
     </row>
     <row r="133">
@@ -4146,19 +4146,19 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E133" t="b">
         <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.9997197985649109</v>
+        <v>0.9917416572570801</v>
       </c>
     </row>
     <row r="134">
@@ -4186,7 +4186,7 @@
         <v>1</v>
       </c>
       <c r="F134" t="n">
-        <v>0.9995954632759094</v>
+        <v>0.9818920493125916</v>
       </c>
     </row>
     <row r="135">
@@ -4214,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.9997755885124207</v>
+        <v>0.9958158135414124</v>
       </c>
     </row>
     <row r="136">
@@ -4230,19 +4230,19 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E136" t="b">
         <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>0.9954054355621338</v>
+        <v>0.9989952445030212</v>
       </c>
     </row>
     <row r="137">
@@ -4258,19 +4258,19 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.6734388470649719</v>
+        <v>0.9978150129318237</v>
       </c>
     </row>
     <row r="138">
@@ -4286,19 +4286,19 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>0.9995383024215698</v>
+        <v>0.761702835559845</v>
       </c>
     </row>
     <row r="139">
@@ -4314,19 +4314,19 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E139" t="b">
         <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.9992486834526062</v>
+        <v>0.9898571968078613</v>
       </c>
     </row>
     <row r="140">
@@ -4342,19 +4342,19 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E140" t="b">
         <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>0.9937408566474915</v>
+        <v>0.8307254910469055</v>
       </c>
     </row>
     <row r="141">
@@ -4370,19 +4370,19 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E141" t="b">
         <v>1</v>
       </c>
       <c r="F141" t="n">
-        <v>0.9998321533203125</v>
+        <v>0.9892674088478088</v>
       </c>
     </row>
     <row r="142">
@@ -4398,19 +4398,19 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E142" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F142" t="n">
-        <v>0.9995942711830139</v>
+        <v>0.6512235999107361</v>
       </c>
     </row>
     <row r="143">
@@ -4426,7 +4426,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -4435,10 +4435,10 @@
         </is>
       </c>
       <c r="E143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.9875950813293457</v>
+        <v>0.9973438382148743</v>
       </c>
     </row>
     <row r="144">
@@ -4454,19 +4454,19 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E144" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F144" t="n">
-        <v>0.9997945427894592</v>
+        <v>0.8466470837593079</v>
       </c>
     </row>
     <row r="145">
@@ -4482,19 +4482,19 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E145" t="b">
         <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.9972406625747681</v>
+        <v>0.9879670739173889</v>
       </c>
     </row>
     <row r="146">
@@ -4515,14 +4515,14 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.9936196208000183</v>
+        <v>0.9994713664054871</v>
       </c>
     </row>
     <row r="147">
@@ -4550,7 +4550,7 @@
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.9974620342254639</v>
+        <v>0.9934607744216919</v>
       </c>
     </row>
     <row r="148">
@@ -4566,19 +4566,19 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.9805143475532532</v>
+        <v>0.995918333530426</v>
       </c>
     </row>
     <row r="149">
@@ -4594,19 +4594,19 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E149" t="b">
         <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0.9994801878929138</v>
+        <v>0.6997339129447937</v>
       </c>
     </row>
     <row r="150">
@@ -4622,19 +4622,19 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E150" t="b">
         <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>0.9975155591964722</v>
+        <v>0.9918510317802429</v>
       </c>
     </row>
     <row r="151">
@@ -4650,19 +4650,19 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E151" t="b">
         <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.9996390342712402</v>
+        <v>0.8079095482826233</v>
       </c>
     </row>
     <row r="152">
@@ -4690,7 +4690,7 @@
         <v>1</v>
       </c>
       <c r="F152" t="n">
-        <v>0.9998431205749512</v>
+        <v>0.9990406632423401</v>
       </c>
     </row>
     <row r="153">
@@ -4718,7 +4718,7 @@
         <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.9997932314872742</v>
+        <v>0.9994671940803528</v>
       </c>
     </row>
     <row r="154">
@@ -4739,14 +4739,14 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E154" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F154" t="n">
-        <v>0.6332074999809265</v>
+        <v>0.9624297618865967</v>
       </c>
     </row>
     <row r="155">
@@ -4762,19 +4762,19 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E155" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.9599145650863647</v>
+        <v>0.9989181756973267</v>
       </c>
     </row>
     <row r="156">
@@ -4802,7 +4802,7 @@
         <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.969221830368042</v>
+        <v>0.9980632662773132</v>
       </c>
     </row>
     <row r="157">
@@ -4830,7 +4830,7 @@
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.9997652173042297</v>
+        <v>0.9991329312324524</v>
       </c>
     </row>
     <row r="158">
@@ -4846,19 +4846,19 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E158" t="b">
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.9980873465538025</v>
+        <v>0.9926282167434692</v>
       </c>
     </row>
     <row r="159">
@@ -4886,7 +4886,7 @@
         <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0.9969442486763</v>
+        <v>0.985444962978363</v>
       </c>
     </row>
     <row r="160">
@@ -4914,7 +4914,7 @@
         <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>0.9997029900550842</v>
+        <v>0.9990805387496948</v>
       </c>
     </row>
     <row r="161">
@@ -4930,19 +4930,19 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E161" t="b">
         <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>0.9996588230133057</v>
+        <v>0.9893693923950195</v>
       </c>
     </row>
     <row r="162">
@@ -4958,7 +4958,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -4967,10 +4967,10 @@
         </is>
       </c>
       <c r="E162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>0.9996203184127808</v>
+        <v>0.9248718619346619</v>
       </c>
     </row>
     <row r="163">
@@ -4998,7 +4998,7 @@
         <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>0.9993723034858704</v>
+        <v>0.9993206262588501</v>
       </c>
     </row>
     <row r="164">
@@ -5014,19 +5014,19 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E164" t="b">
         <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>0.9998065829277039</v>
+        <v>0.9454719424247742</v>
       </c>
     </row>
     <row r="165">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.9972851276397705</v>
+        <v>0.9893760681152344</v>
       </c>
     </row>
     <row r="166">
@@ -5082,7 +5082,7 @@
         <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>0.9996315240859985</v>
+        <v>0.999187171459198</v>
       </c>
     </row>
     <row r="167">
@@ -5110,7 +5110,7 @@
         <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.9998020529747009</v>
+        <v>0.9993621706962585</v>
       </c>
     </row>
     <row r="168">
@@ -5126,19 +5126,19 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E168" t="b">
         <v>1</v>
       </c>
       <c r="F168" t="n">
-        <v>0.9932394027709961</v>
+        <v>0.9985266923904419</v>
       </c>
     </row>
     <row r="169">
@@ -5166,7 +5166,7 @@
         <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.9995236396789551</v>
+        <v>0.9992782473564148</v>
       </c>
     </row>
     <row r="170">
@@ -5194,7 +5194,7 @@
         <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0.9923227429389954</v>
+        <v>0.9905624985694885</v>
       </c>
     </row>
     <row r="171">
@@ -5210,19 +5210,19 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E171" t="b">
         <v>1</v>
       </c>
       <c r="F171" t="n">
-        <v>0.9884517192840576</v>
+        <v>0.9908580183982849</v>
       </c>
     </row>
     <row r="172">
@@ -5238,19 +5238,19 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E172" t="b">
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.9994986057281494</v>
+        <v>0.9904588460922241</v>
       </c>
     </row>
     <row r="173">
@@ -5266,19 +5266,19 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E173" t="b">
         <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.9798775315284729</v>
+        <v>0.9987964630126953</v>
       </c>
     </row>
     <row r="174">
@@ -5306,7 +5306,7 @@
         <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0.9997314810752869</v>
+        <v>0.9877288341522217</v>
       </c>
     </row>
     <row r="175">
@@ -5334,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.9993109703063965</v>
+        <v>0.9991511106491089</v>
       </c>
     </row>
     <row r="176">
@@ -5350,19 +5350,19 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E176" t="b">
         <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.9597031474113464</v>
+        <v>0.9991645812988281</v>
       </c>
     </row>
     <row r="177">
@@ -5390,7 +5390,7 @@
         <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.9991022348403931</v>
+        <v>0.9994484782218933</v>
       </c>
     </row>
     <row r="178">
@@ -5406,19 +5406,19 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E178" t="b">
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.9996820688247681</v>
+        <v>0.9818283915519714</v>
       </c>
     </row>
     <row r="179">
@@ -5446,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.999417781829834</v>
+        <v>0.9987810254096985</v>
       </c>
     </row>
     <row r="180">
@@ -5462,19 +5462,19 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E180" t="b">
         <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.996478259563446</v>
+        <v>0.9983859062194824</v>
       </c>
     </row>
     <row r="181">
@@ -5502,7 +5502,7 @@
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.9996421337127686</v>
+        <v>0.9991627931594849</v>
       </c>
     </row>
     <row r="182">
@@ -5530,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.9995777010917664</v>
+        <v>0.987967312335968</v>
       </c>
     </row>
     <row r="183">
@@ -5546,19 +5546,19 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E183" t="b">
         <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>0.9972242116928101</v>
+        <v>0.9994811415672302</v>
       </c>
     </row>
     <row r="184">
@@ -5574,19 +5574,19 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E184" t="b">
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.9979522228240967</v>
+        <v>0.9994939565658569</v>
       </c>
     </row>
     <row r="185">
@@ -5602,19 +5602,19 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E185" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F185" t="n">
-        <v>0.9998441934585571</v>
+        <v>0.975305438041687</v>
       </c>
     </row>
     <row r="186">
@@ -5630,19 +5630,19 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E186" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.9893436431884766</v>
+        <v>0.994486391544342</v>
       </c>
     </row>
     <row r="187">
@@ -5670,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.9995965361595154</v>
+        <v>0.9994033575057983</v>
       </c>
     </row>
     <row r="188">
@@ -5698,7 +5698,7 @@
         <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.9996932744979858</v>
+        <v>0.9986304044723511</v>
       </c>
     </row>
     <row r="189">
@@ -5714,19 +5714,19 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E189" t="b">
         <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>0.9979522228240967</v>
+        <v>0.9990546107292175</v>
       </c>
     </row>
     <row r="190">
@@ -5742,19 +5742,19 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E190" t="b">
         <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0.9951204657554626</v>
+        <v>0.9919217824935913</v>
       </c>
     </row>
     <row r="191">
@@ -5782,7 +5782,7 @@
         <v>1</v>
       </c>
       <c r="F191" t="n">
-        <v>0.9998005032539368</v>
+        <v>0.9994863271713257</v>
       </c>
     </row>
     <row r="192">
@@ -5798,19 +5798,19 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E192" t="b">
         <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.9984517097473145</v>
+        <v>0.9990406632423401</v>
       </c>
     </row>
     <row r="193">
@@ -5838,7 +5838,7 @@
         <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.9993219375610352</v>
+        <v>0.9976106882095337</v>
       </c>
     </row>
     <row r="194">
@@ -5866,7 +5866,7 @@
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.9982044696807861</v>
+        <v>0.9925051927566528</v>
       </c>
     </row>
     <row r="195">
@@ -5894,7 +5894,7 @@
         <v>1</v>
       </c>
       <c r="F195" t="n">
-        <v>0.9996196031570435</v>
+        <v>0.9990880489349365</v>
       </c>
     </row>
     <row r="196">
@@ -5922,7 +5922,7 @@
         <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.9997578263282776</v>
+        <v>0.9996850490570068</v>
       </c>
     </row>
     <row r="197">
@@ -5950,7 +5950,7 @@
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.9994881153106689</v>
+        <v>0.9976330995559692</v>
       </c>
     </row>
     <row r="198">
@@ -5978,7 +5978,7 @@
         <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>0.9995949864387512</v>
+        <v>0.9995397329330444</v>
       </c>
     </row>
     <row r="199">
@@ -5994,19 +5994,19 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E199" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0.3564356565475464</v>
+        <v>0.9873217940330505</v>
       </c>
     </row>
     <row r="200">
@@ -6022,19 +6022,19 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E200" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>0.9996583461761475</v>
+        <v>0.4721343219280243</v>
       </c>
     </row>
     <row r="201">
@@ -6050,19 +6050,19 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E201" t="b">
         <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>0.9937993884086609</v>
+        <v>0.6927512288093567</v>
       </c>
     </row>
     <row r="202">
@@ -6090,7 +6090,7 @@
         <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.9998014569282532</v>
+        <v>0.9991053938865662</v>
       </c>
     </row>
     <row r="203">
@@ -6111,14 +6111,14 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E203" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.9904668927192688</v>
+        <v>0.9821709394454956</v>
       </c>
     </row>
     <row r="204">
@@ -6134,19 +6134,19 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E204" t="b">
         <v>1</v>
       </c>
       <c r="F204" t="n">
-        <v>0.9932394027709961</v>
+        <v>0.9680737853050232</v>
       </c>
     </row>
     <row r="205">
@@ -6174,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.9997201561927795</v>
+        <v>0.9995492100715637</v>
       </c>
     </row>
     <row r="206">
@@ -6190,19 +6190,19 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E206" t="b">
         <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0.9937825798988342</v>
+        <v>0.9890096783638</v>
       </c>
     </row>
     <row r="207">
@@ -6218,19 +6218,19 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E207" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.9684794545173645</v>
+        <v>0.9993703961372375</v>
       </c>
     </row>
     <row r="208">
@@ -6258,7 +6258,7 @@
         <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0.9998680353164673</v>
+        <v>0.9994352459907532</v>
       </c>
     </row>
     <row r="209">
@@ -6286,7 +6286,7 @@
         <v>1</v>
       </c>
       <c r="F209" t="n">
-        <v>0.9997608065605164</v>
+        <v>0.9994906187057495</v>
       </c>
     </row>
     <row r="210">
@@ -6314,7 +6314,7 @@
         <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>0.9947935938835144</v>
+        <v>0.9961452484130859</v>
       </c>
     </row>
   </sheetData>
